--- a/apexsoft-code-generator/src/test/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
+++ b/apexsoft-code-generator/src/test/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\01_微服务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC42706-BA3D-4C53-9F41-B0A05B3FC25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899089F-8E4E-43CB-9C95-80036FBD49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入参" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>参数名</t>
   </si>
@@ -68,18 +68,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>QSMC</t>
-  </si>
-  <si>
-    <t>YJ</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>ZBPM</t>
-  </si>
-  <si>
     <t>reportPeriodType</t>
   </si>
   <si>
@@ -168,6 +156,45 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>JJGS</t>
+  </si>
+  <si>
+    <t>XWMC</t>
+  </si>
+  <si>
+    <t>GPJYZJE</t>
+  </si>
+  <si>
+    <t>GPXWZB</t>
+  </si>
+  <si>
+    <t>ZQJYZJE</t>
+  </si>
+  <si>
+    <t>ZQXWZB</t>
+  </si>
+  <si>
+    <t>HGJYZJE</t>
+  </si>
+  <si>
+    <t>HGXWZB</t>
+  </si>
+  <si>
+    <t>ZYJ</t>
+  </si>
+  <si>
+    <t>TBZZL</t>
+  </si>
+  <si>
+    <t>YJXWZB</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>BGQ</t>
   </si>
 </sst>
 </file>
@@ -452,9 +479,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,6 +496,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -769,10 +796,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="15"/>
+      <c r="E1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="14.65">
       <c r="A2" s="9" t="s">
@@ -787,38 +814,42 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="14.65">
       <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="14.65" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="14.65">
       <c r="A5" s="6"/>
@@ -867,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -917,140 +948,156 @@
     </row>
     <row r="4" spans="1:4" ht="14.65">
       <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65">
       <c r="A5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.65">
       <c r="A6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65">
       <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.65">
       <c r="A8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.65">
       <c r="A9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.65">
       <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.65">
       <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.65">
       <c r="A12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.65">
       <c r="A13" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.65">
       <c r="A14" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/apexsoft-code-generator/src/test/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
+++ b/apexsoft-code-generator/src/test/resources/com/qqc/apexsoft/codegenerator/queryList/generateCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\01_微服务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899089F-8E4E-43CB-9C95-80036FBD49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2951A514-582E-4B49-9B77-4CF997DA0FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="入参" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>reportPeriodType</t>
   </si>
   <si>
-    <t>基金公司</t>
-  </si>
-  <si>
     <t>席位名称</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>佣金席位占比(%)</t>
   </si>
   <si>
-    <t>fundCompany</t>
-  </si>
-  <si>
     <t>seatName</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>JJGS</t>
-  </si>
-  <si>
     <t>XWMC</t>
   </si>
   <si>
@@ -195,6 +186,15 @@
   </si>
   <si>
     <t>BGQ</t>
+  </si>
+  <si>
+    <t>交易基金只数</t>
+  </si>
+  <si>
+    <t>JYJJZS</t>
+  </si>
+  <si>
+    <t>numberOfTradedFunds</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +479,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,7 +500,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -796,10 +802,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="14.65">
       <c r="A2" s="9" t="s">
@@ -814,42 +820,42 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="14.65">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="14.65" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="E4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="14.65">
       <c r="A5" s="6"/>
@@ -898,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -950,159 +956,159 @@
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>45</v>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>46</v>
+      <c r="A5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.65">
       <c r="A6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65">
       <c r="A7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.65">
       <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.65">
       <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.65">
       <c r="A10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>51</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.65">
       <c r="A11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.65">
       <c r="A12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.65">
       <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.65">
       <c r="A14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>